--- a/RPA_Automation/Playwright/amazon_products.xlsx
+++ b/RPA_Automation/Playwright/amazon_products.xlsx
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portronics Toad 23 Wireless Optical Mouse with 2.4GHz, USB Nano Dongle, Optical Orientation, Click Wheel, Adjustable DPI(Black)</t>
+          <t>Ambrane Wireless Mouse with 2.4GHz, USB Nano Dongle, Silent Click, Optical Orientation Click Wheel, 4 Buttons, 1600 Adjustable DPI, Both Hand Use, Compatible with PC, Mac, Laptop (Sliq 3, Black)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.0 out of 5 stars</t>
+          <t>3.8 out of 5 stars</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/RPA_Automation/Playwright/amazon_products.xlsx
+++ b/RPA_Automation/Playwright/amazon_products.xlsx
@@ -446,17 +446,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HP M190 Wireless Mouse (AB3C6AA)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>₹599</t>
+          <t>₹299</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.5 out of 5 stars</t>
+          <t>2.6 out of 5 stars</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,17 +468,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ambrane Wireless Mouse with 2.4GHz, USB Nano Dongle, Silent Click, Optical Orientation Click Wheel, 4 Buttons, 1600 Adjustable DPI, Both Hand Use, Compatible with PC, Mac, Laptop (Sliq 3, Black)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹369</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.8 out of 5 stars</t>
+          <t>4.5 out of 5 stars</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZEBRONICS Zeb-Jaguar Wireless Mouse, 2.4GHz with USB Nano Receiver, High Precision Optical Tracking, 4 Buttons, Plug &amp; Play, Ambidextrous, for PC/Mac/Laptop (Black+Grey)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.9 out of 5 stars</t>
+          <t>3.8 out of 5 stars</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
